--- a/수강신청-테이블명세.xlsx
+++ b/수강신청-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050012\Documents\workspace\dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96450996-F37B-488F-8C0D-C4DDFDD78869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3CB98-AF6C-4573-A924-C132DF5BF05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="2" r:id="rId1"/>
@@ -2317,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA37567D-0595-466A-A42B-6BF2640F5E1D}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3472,12 +3472,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
